--- a/xls/TABLE_角色经验及成长.xlsx
+++ b/xls/TABLE_角色经验及成长.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>等级</t>
   </si>
@@ -54,22 +54,6 @@
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_friend</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_hp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1032,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1058,16 +1042,16 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
